--- a/_site/Data/KindergartenAndSchoolEnrollment.xlsx
+++ b/_site/Data/KindergartenAndSchoolEnrollment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Question</t>
   </si>
@@ -36,33 +36,33 @@
     <t>Is public pre-kindergarten available in your area?</t>
   </si>
   <si>
-    <t xml:space="preserve">o	Yes  (1) 
-o	No  (0) 
-o	I don't know  (2) 
+    <t xml:space="preserve">• Yes   
+• No   
+• I don't know   
 </t>
   </si>
   <si>
-    <t>08/02/2022-08/11/2022</t>
+    <t>08/02/2022-08/11/2022 09/08/2022-09/15/2022</t>
   </si>
   <si>
     <t>If you have a child that is eligible for enrollment for public pre-kindergarten are you choosing to enroll them?</t>
   </si>
   <si>
-    <t xml:space="preserve">o	Yes  (1) 
-o	No  (0) 
-o	Not applicable  (2) 
+    <t xml:space="preserve">• Yes   
+• No   
+• Not applicable   
 </t>
   </si>
   <si>
     <t>What are your reasons for not enrolling your child(ren) in public pre-kindergarten? Select all that apply.</t>
   </si>
   <si>
-    <t xml:space="preserve">▢	I prefer my current childcare arrangement  (1) 
-▢	I am concerned about safety related to COVID-19  (2) 
-▢	I am concerned about safety unrelated to COVID-19  (3) 
-▢	Transportation or my work schedule makes it difficult  (4) 
-▢	I don't think my child(ren) needs pre-kindergarten  (5) 
-▢	Not Listed (please specify)  (6) </t>
+    <t xml:space="preserve">• I prefer my current childcare arrangement   
+• I am concerned about safety related to COVID-19   
+• I am concerned about safety unrelated to COVID-19   
+• Transportation or my work schedule makes it difficult   
+• I don't think my child(ren) needs pre-kindergarten   
+• Not Listed (please specify)   </t>
   </si>
   <si>
     <t>If you have a child that is eligible for enrollment for public kindergarten, are you choosing to enroll them?</t>
@@ -71,23 +71,26 @@
     <t>What are your reasons for not enrolling your child(ren) in public kindergarten?</t>
   </si>
   <si>
-    <t xml:space="preserve">▢	I’m enrolling my child(ren) in a private kindergarten  (1) 
-▢	I’m choosing to homeschool my child(ren)  (2) 
-▢	I am concerned about safety related to COVID-19  (3) 
-▢	I am concerned about safety unrelated to COVID-19  (4) 
-▢	Transportation or my work schedule makes it difficult  (5) 
-▢	Not Listed (please specify)  (6) </t>
+    <t xml:space="preserve">• I’m enrolling my child(ren) in a private kindergarten   
+• I’m choosing to homeschool my child(ren)   
+• I am concerned about safety related to COVID-19   
+• I am concerned about safety unrelated to COVID-19   
+• Transportation or my work schedule makes it difficult   
+• Not Listed (please specify)   </t>
+  </si>
+  <si>
+    <t>If you have a child that is eligible for enrollment for public 1st through 12th grade, are you choosing to enroll them?</t>
   </si>
   <si>
     <t>What are your reasons for not enrolling your child(ren) in public 1st through 12th grade?</t>
   </si>
   <si>
-    <t xml:space="preserve">▢	I’m enrolling my child(ren) in a private 1st through 12th grade  (1) 
-▢	I’m choosing to homeschool my child(ren)  (2) 
-▢	I am concerned about safety related to COVID-19  (3) 
-▢	I am concerned about safety unrelated to COVID-19  (4) 
-▢	Transportation or my work schedule makes it difficult  (5) 
-▢	Not Listed (please specify)  (6) </t>
+    <t xml:space="preserve">• I’m enrolling my child(ren) in a private 1st through 12th grade   
+• I’m choosing to homeschool my child(ren)   
+• I am concerned about safety related to COVID-19   
+• I am concerned about safety unrelated to COVID-19   
+• Transportation or my work schedule makes it difficult   
+• Not Listed (please specify)   </t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" ht="159.75" customHeight="1">
+    <row r="4" ht="167.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -603,7 +606,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="213.0" customHeight="1">
+    <row r="6" ht="171.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -639,7 +642,7 @@
     </row>
     <row r="7" ht="102.0" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -671,12 +674,12 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="153.0" customHeight="1">
+    <row r="8" ht="169.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>

--- a/_site/Data/KindergartenAndSchoolEnrollment.xlsx
+++ b/_site/Data/KindergartenAndSchoolEnrollment.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi9Lv+Y3m5m0DDIncQkIdKcdyWCfA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="CqK2hSZOhE/Uj+cajDtm/1mhkkMDbBsYGYkIPWQoZUw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -42,7 +42,7 @@
 </t>
   </si>
   <si>
-    <t>08/02/2022-08/11/2022 09/08/2022-09/15/2022</t>
+    <t>08/02/2022-08/11/2022 09/08/2022-09/15/2022 05/03/2023-05/10/2023</t>
   </si>
   <si>
     <t>If you have a child that is eligible for enrollment for public pre-kindergarten are you choosing to enroll them?</t>
@@ -57,26 +57,51 @@
     <t>What are your reasons for not enrolling your child(ren) in public pre-kindergarten? Select all that apply.</t>
   </si>
   <si>
-    <t xml:space="preserve">• I prefer my current childcare arrangement   
+    <t>• I prefer my current childcare arrangement   
 • I am concerned about safety related to COVID-19   
 • I am concerned about safety unrelated to COVID-19   
 • Transportation or my work schedule makes it difficult   
 • I don't think my child(ren) needs pre-kindergarten   
-• Not Listed (please specify)   </t>
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>08/02/2022-08/11/2022 09/08/2022-09/15/2022</t>
+  </si>
+  <si>
+    <t>• I prefer my current childcare arrangement
+• I am concerned about exposure to illnesses
+• I am concerned about safety
+• Transportation or my work schedule makes it difficult
+• I don't think my child(ren) needs pre-kindergarten 
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>If you have a child that is eligible for enrollment for public kindergarten, are you choosing to enroll them?</t>
   </si>
   <si>
+    <t>08/02/2022-08/11/2022 09/08/2022-09/15/2022 06/07/2023-06/14/2023</t>
+  </si>
+  <si>
     <t>What are your reasons for not enrolling your child(ren) in public kindergarten?</t>
   </si>
   <si>
-    <t xml:space="preserve">• I’m enrolling my child(ren) in a private kindergarten   
+    <t>• I’m enrolling my child(ren) in a private kindergarten   
 • I’m choosing to homeschool my child(ren)   
 • I am concerned about safety related to COVID-19   
 • I am concerned about safety unrelated to COVID-19   
 • Transportation or my work schedule makes it difficult   
-• Not Listed (please specify)   </t>
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>• I’m enrolling my child(ren) in a private kindergarten
+• I’m choosing to homeschool my child(ren)
+• I am concerned about exposure to illnesses
+• I am concerned about safety
+• Transportation or my work schedule makes it difficult 
+• Not Listed (please specify)</t>
   </si>
   <si>
     <t>If you have a child that is eligible for enrollment for public 1st through 12th grade, are you choosing to enroll them?</t>
@@ -85,12 +110,20 @@
     <t>What are your reasons for not enrolling your child(ren) in public 1st through 12th grade?</t>
   </si>
   <si>
-    <t xml:space="preserve">• I’m enrolling my child(ren) in a private 1st through 12th grade   
+    <t>• I’m enrolling my child(ren) in a private 1st through 12th grade   
 • I’m choosing to homeschool my child(ren)   
 • I am concerned about safety related to COVID-19   
 • I am concerned about safety unrelated to COVID-19   
 • Transportation or my work schedule makes it difficult   
-• Not Listed (please specify)   </t>
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>• I’m enrolling my child(ren) in a private 1st through 12th grade 
+• I’m choosing to homeschool my child(ren)
+• I am concerned about exposure to illnesses
+• I am concerned about safety
+• Transportation or my work schedule makes it difficult
+• Not Listed (please specify)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -164,6 +197,11 @@
     </border>
     <border>
       <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
         <color rgb="FFA6A6A6"/>
       </bottom>
     </border>
@@ -171,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -188,6 +226,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -197,7 +238,7 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -548,7 +589,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -574,15 +615,15 @@
     </row>
     <row r="5" ht="169.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -606,17 +647,17 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="171.75" customHeight="1">
+    <row r="6" ht="169.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -640,17 +681,17 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="102.0" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
+    <row r="7" ht="171.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -674,17 +715,17 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="169.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
+    <row r="8" ht="102.0" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -708,12 +749,18 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="153.0" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
+    <row r="9" ht="102.0" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -736,12 +783,18 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="153.0" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
+    <row r="10" ht="169.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -764,12 +817,18 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="102.0" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
+    <row r="11" ht="153.0" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -792,11 +851,11 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="169.5" customHeight="1">
-      <c r="A12" s="7"/>
+    <row r="12" ht="153.0" customHeight="1">
+      <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -820,11 +879,11 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9"/>
+    <row r="13" ht="102.0" customHeight="1">
+      <c r="A13" s="8"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -848,11 +907,11 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
+    <row r="14" ht="169.5" customHeight="1">
+      <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -876,11 +935,11 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="102.0" customHeight="1">
-      <c r="A15" s="7"/>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="10"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -905,11 +964,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -932,12 +991,12 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
+    <row r="17" ht="102.0" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -961,11 +1020,11 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -989,11 +1048,11 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1017,11 +1076,11 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1045,11 +1104,11 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -28484,6 +28543,62 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/_site/Data/KindergartenAndSchoolEnrollment.xlsx
+++ b/_site/Data/KindergartenAndSchoolEnrollment.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="CqK2hSZOhE/Uj+cajDtm/1mhkkMDbBsYGYkIPWQoZUw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="sTOxqWTwLgaJ7TnNHONwUH+EwLcDIKyJD1bxuC/jpGM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -42,16 +42,30 @@
 </t>
   </si>
   <si>
-    <t>08/02/2022-08/11/2022 09/08/2022-09/15/2022 05/03/2023-05/10/2023</t>
+    <t>08/02/2022-08/11/2022 09/08/2022-09/15/2022 05/03/2023-05/10/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>If you have a child that is eligible for enrollment for public pre-kindergarten are you choosing to enroll them?</t>
   </si>
   <si>
-    <t xml:space="preserve">• Yes   
+    <t>• Yes   
 • No   
-• Not applicable   
-</t>
+• Not applicable</t>
+  </si>
+  <si>
+    <t>Why did you decide to enroll your child in public pre-kindergarten? Select all that apply.</t>
+  </si>
+  <si>
+    <t>• Pre-kindergarten reduces the cost of child care for my household
+• Pre-kindergarten provides a reliable place for my child to be during the day
+• Pre-kindergarten will support my child's learning of core academic skills
+• Pre-kindergarten will support my child's connection to the community 
+• Pre-kindergarten will support my child's ability to maintain existing and form new friendships
+• Pre-kindergarten will support my child's access to enrichment and extracurricular activities (e.g., art, music, etc.) 
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>What are your reasons for not enrolling your child(ren) in public pre-kindergarten? Select all that apply.</t>
@@ -76,13 +90,34 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>06/07/2023-06/14/2023</t>
+    <t>06/07/2023-06/14/2023 09/06/2023-09/13/2023</t>
+  </si>
+  <si>
+    <t>What will your child do instead of attending public pre-kindergarten?</t>
+  </si>
+  <si>
+    <t>• Stay home with a parent
+• Stay home with another child care provider
+• Be cared for outside the home, in a center or program 
+• Not Listed (please specify)</t>
   </si>
   <si>
     <t>If you have a child that is eligible for enrollment for public kindergarten, are you choosing to enroll them?</t>
   </si>
   <si>
-    <t>08/02/2022-08/11/2022 09/08/2022-09/15/2022 06/07/2023-06/14/2023</t>
+    <t>08/02/2022-08/11/2022 09/08/2022-09/15/2022 06/07/2023-06/14/2023 09/06/2023-09/13/2023</t>
+  </si>
+  <si>
+    <t>Why did you decide to enroll your child in public kindergarten? Select all that apply.</t>
+  </si>
+  <si>
+    <t>• Kindergarten reduces the cost of child care for my household
+• Kindergarten provides a reliable place for my child to be during the day
+• Kindergarten will support my child's learning of core academic skills 
+• Kindergarten will support my child's connection to the school community
+• Kindergarten will support my child's ability to maintain existing and form new friendships
+• Kindergarten will support my child's access to enrichment and extracurricular activities (e.g., art, music, etc.) 
+• Not Listed (please specify)</t>
   </si>
   <si>
     <t>What are your reasons for not enrolling your child(ren) in public kindergarten?</t>
@@ -104,7 +139,23 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
+    <t>What will your child do instead of attending kindergarten?</t>
+  </si>
+  <si>
+    <t>• Stay home with a parent
+• Stay home with another child care provider 
+• Be cared for outside the home, in a center or program
+• Attend Pre-K in a center or program
+• Not Listed (please specify)</t>
+  </si>
+  <si>
     <t>If you have a child that is eligible for enrollment for public 1st through 12th grade, are you choosing to enroll them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes   
+• No   
+• Not applicable   
+</t>
   </si>
   <si>
     <t>What are your reasons for not enrolling your child(ren) in public 1st through 12th grade?</t>
@@ -124,6 +175,20 @@
 • I am concerned about safety
 • Transportation or my work schedule makes it difficult
 • Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>Does this decision to not enroll your child in public pre-kindergarten, kindergarten, or 1st through 12th grade impact you or your partner's ability to work?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Not applicable, I or my partner do(es) not work</t>
+  </si>
+  <si>
+    <t>Please describe how this decision impacts your or your partner's ability to work.</t>
+  </si>
+  <si>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
@@ -167,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -196,6 +261,11 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
@@ -209,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -226,19 +296,25 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -580,7 +656,7 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="167.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -613,17 +689,17 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" ht="169.5" customHeight="1">
+    <row r="5" ht="167.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -649,15 +725,15 @@
     </row>
     <row r="6" ht="169.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -681,12 +757,12 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="171.75" customHeight="1">
+    <row r="7" ht="169.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -715,17 +791,17 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="102.0" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
+    <row r="8" ht="169.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -749,17 +825,17 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="102.0" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
+    <row r="9" ht="171.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -783,17 +859,17 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="169.5" customHeight="1">
+    <row r="10" ht="171.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -817,17 +893,17 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="153.0" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
+    <row r="11" ht="102.0" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -851,12 +927,18 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="153.0" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="1"/>
+    <row r="12" ht="102.0" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -880,11 +962,17 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="102.0" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -908,11 +996,17 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="169.5" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -935,12 +1029,18 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="1"/>
+    <row r="15" ht="153.0" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -963,12 +1063,18 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="1"/>
+    <row r="16" ht="153.0" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -992,11 +1098,17 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="102.0" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1019,12 +1131,12 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
+    <row r="18" ht="169.5" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1048,11 +1160,11 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1076,11 +1188,11 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1103,12 +1215,12 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
+    <row r="21" ht="102.0" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1132,11 +1244,11 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1160,11 +1272,11 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1188,11 +1300,11 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1216,11 +1328,11 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -28599,6 +28711,118 @@
       <c r="Y1002" s="2"/>
       <c r="Z1002" s="2"/>
     </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
